--- a/Dataset/Folds/Fold_3/Excel/95.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="482">
   <si>
     <t>Doi</t>
   </si>
@@ -1521,6 +1521,199 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,                           Valentina%Ponzo%NULL%1,                           Rosalba%Rosato%NULL%1,                           Elena%Scumaci%NULL%1,                           Ilaria%Goitre%NULL%1,                           Andrea%Benso%NULL%1,                           Sara%Belcastro%NULL%1,                           Chiara%Crespi%NULL%1,                           Franco%De Michieli%NULL%1,                           Ezio%Ghigo%NULL%1,                           Fabio%Broglio%NULL%1,                           Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                            Silvia%Brazzo%NULL%1,                            Rachele%De Giuseppe%NULL%1,                            Ginevra%Biino%NULL%2,                            Ginevra%Biino%NULL%0,                            Ilaria%Vietti%NULL%1,                            Cristina%Pallavicini%NULL%1,                            Hellas%Cena%NULL%1,                            Emma%Ruiz Moreno%NULL%3,                            Emma%Ruiz Moreno%NULL%0,                            Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                            Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                            Sandro%Sperandei%NULL%1,                            Louise%Freebairn%NULL%1,                            Elizabeth%Conroy%NULL%1,                            Hir%Jani%NULL%1,                            Sandra%Marjanovic%NULL%1,                            Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                            Timothy%Olds%NULL%2,                            Timothy%Olds%NULL%0,                            Ty%Ferguson%NULL%1,                            François%Fraysse%NULL%2,                            François%Fraysse%NULL%0,                            Dorothea%Dumuid%NULL%1,                            Adrian%Esterman%NULL%1,                            Gilly A.%Hendrie%NULL%1,                            Wendy J.%Brown%NULL%1,                            Rajini%Lagiseti%NULL%1,                            Carol A.%Maher%NULL%1,                            Stephanie%Prince Ware%NULL%2,                            Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                            Ana-Belén%Fraile-Bermúdez%NULL%2,                            Ana-Belén%Fraile-Bermúdez%NULL%0,                            Batirtze San%Martín-Gamboa%NULL%2,                            Batirtze San%Martín-Gamboa%NULL%0,                            Silvia%Cepeda-Miguel%NULL%1,                            Borja%Doncel-García%NULL%2,                            Borja%Doncel-García%NULL%0,                            Ainhoa%Fernandez-Atutxa%NULL%2,                            Ainhoa%Fernandez-Atutxa%NULL%0,                            Amaia%Irazusta%NULL%1,                            Idoia%Zarrazquin%NULL%2,                            Idoia%Zarrazquin%NULL%0,                            Simona%Bo%NULL%4,                            Simona%Bo%NULL%0,                            Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                            Emma%Ward%NULL%2,                            Emma%Ward%NULL%0,                            Mizanur%Khondoker%NULL%1,                            Pippa%Belderson%NULL%1,                            Anne%Marie Minihane%NULL%1,                            Jack%Dainty%NULL%1,                            Sarah%Hanson%NULL%1,                            Richard%Holland%NULL%1,                            Tracey%Brown%NULL%1,                            Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                            Andrea D.%Smith%NULL%1,                            Feifei%Bu%NULL%1,                            Andrew%Steptoe%NULL%1,                            Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                            Chihiro%Munekawa%NULL%1,                            Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                            Takuro%Okamura%NULL%2,                            Takuro%Okamura%NULL%0,                            Fuyuko%Takahashi%NULL%1,                            Rena%Kawano%NULL%1,                            Hanako%Nakajima%NULL%1,                            Saori%Majima%NULL%1,                            Takafumi%Senmaru%NULL%1,                            Naoko%Nakanishi%NULL%1,                            Emi%Ushigome%NULL%1,                            Masahide%Hamaguchi%NULL%1,                            Masahiro%Yamazaki%NULL%1,                            Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                            Satomi%Kobayashi%NULL%1,                            Mai%Yamaguchi%NULL%1,                            Ryohei%Sakata%NULL%1,                            Yuki%Sasaki%NULL%1,                            Chiaki%Murayama%NULL%1,                            Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                            Luca%Pecoraro%NULL%1,                            Alessandro%Ferruzzi%NULL%1,                            Moonseong%Heo%NULL%1,                            Myles%Faith%NULL%1,                            Thomas%Zoller%NULL%2,                            Thomas%Zoller%NULL%0,                            Franco%Antoniazzi%NULL%1,                            Giorgio%Piacentini%NULL%1,                            S. Nicole%Fearnbach%NULL%1,                            Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                            Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                            Valentina%Ponzo%NULL%1,                            Rosalba%Rosato%NULL%1,                            Elena%Scumaci%NULL%1,                            Ilaria%Goitre%NULL%1,                            Andrea%Benso%NULL%1,                            Sara%Belcastro%NULL%1,                            Chiara%Crespi%NULL%1,                            Franco%De Michieli%NULL%1,                            Ezio%Ghigo%NULL%1,                            Fabio%Broglio%NULL%1,                            Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                             Silvia%Brazzo%NULL%1,                             Rachele%De Giuseppe%NULL%1,                             Ginevra%Biino%NULL%2,                             Ginevra%Biino%NULL%0,                             Ilaria%Vietti%NULL%1,                             Cristina%Pallavicini%NULL%1,                             Hellas%Cena%NULL%1,                             Emma%Ruiz Moreno%NULL%3,                             Emma%Ruiz Moreno%NULL%0,                             Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                             Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                             Sandro%Sperandei%NULL%1,                             Louise%Freebairn%NULL%1,                             Elizabeth%Conroy%NULL%1,                             Hir%Jani%NULL%1,                             Sandra%Marjanovic%NULL%1,                             Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                             Timothy%Olds%NULL%2,                             Timothy%Olds%NULL%0,                             Ty%Ferguson%NULL%1,                             François%Fraysse%NULL%2,                             François%Fraysse%NULL%0,                             Dorothea%Dumuid%NULL%1,                             Adrian%Esterman%NULL%1,                             Gilly A.%Hendrie%NULL%1,                             Wendy J.%Brown%NULL%1,                             Rajini%Lagiseti%NULL%1,                             Carol A.%Maher%NULL%1,                             Stephanie%Prince Ware%NULL%2,                             Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                             Ana-Belén%Fraile-Bermúdez%NULL%2,                             Ana-Belén%Fraile-Bermúdez%NULL%0,                             Batirtze San%Martín-Gamboa%NULL%2,                             Batirtze San%Martín-Gamboa%NULL%0,                             Silvia%Cepeda-Miguel%NULL%1,                             Borja%Doncel-García%NULL%2,                             Borja%Doncel-García%NULL%0,                             Ainhoa%Fernandez-Atutxa%NULL%2,                             Ainhoa%Fernandez-Atutxa%NULL%0,                             Amaia%Irazusta%NULL%1,                             Idoia%Zarrazquin%NULL%2,                             Idoia%Zarrazquin%NULL%0,                             Simona%Bo%NULL%4,                             Simona%Bo%NULL%0,                             Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                             Emma%Ward%NULL%2,                             Emma%Ward%NULL%0,                             Mizanur%Khondoker%NULL%1,                             Pippa%Belderson%NULL%1,                             Anne%Marie Minihane%NULL%1,                             Jack%Dainty%NULL%1,                             Sarah%Hanson%NULL%1,                             Richard%Holland%NULL%1,                             Tracey%Brown%NULL%1,                             Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                             Andrea D.%Smith%NULL%1,                             Feifei%Bu%NULL%1,                             Andrew%Steptoe%NULL%1,                             Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                             Chihiro%Munekawa%NULL%1,                             Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                             Takuro%Okamura%NULL%2,                             Takuro%Okamura%NULL%0,                             Fuyuko%Takahashi%NULL%1,                             Rena%Kawano%NULL%1,                             Hanako%Nakajima%NULL%1,                             Saori%Majima%NULL%1,                             Takafumi%Senmaru%NULL%1,                             Naoko%Nakanishi%NULL%1,                             Emi%Ushigome%NULL%1,                             Masahide%Hamaguchi%NULL%1,                             Masahiro%Yamazaki%NULL%1,                             Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                             Satomi%Kobayashi%NULL%1,                             Mai%Yamaguchi%NULL%1,                             Ryohei%Sakata%NULL%1,                             Yuki%Sasaki%NULL%1,                             Chiaki%Murayama%NULL%1,                             Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                             Luca%Pecoraro%NULL%1,                             Alessandro%Ferruzzi%NULL%1,                             Moonseong%Heo%NULL%1,                             Myles%Faith%NULL%1,                             Thomas%Zoller%NULL%2,                             Thomas%Zoller%NULL%0,                             Franco%Antoniazzi%NULL%1,                             Giorgio%Piacentini%NULL%1,                             S. Nicole%Fearnbach%NULL%1,                             Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                             Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                             Valentina%Ponzo%NULL%1,                             Rosalba%Rosato%NULL%1,                             Elena%Scumaci%NULL%1,                             Ilaria%Goitre%NULL%1,                             Andrea%Benso%NULL%1,                             Sara%Belcastro%NULL%1,                             Chiara%Crespi%NULL%1,                             Franco%De Michieli%NULL%1,                             Ezio%Ghigo%NULL%1,                             Fabio%Broglio%NULL%1,                             Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background.
+ COVID-19 pandemic has imposed a period of contingency measures, including total or partial lockdowns all over the world leading to several changes in lifestyle/eating behaviours.
+ This retrospective cohort study aimed at investigating Italian adult population lifestyle changes during COVID-19 pandemic “Phase 1” lockdown (8 March–4 May 2020) and discriminate between positive and negative changes and BMI (body mass index) variations (ΔBMI).
+ Methods.
+ A multiple-choice web-form survey was used to collect retrospective data regarding lifestyle/eating behaviours during “Phase 1” in the Italian adult population.
+ According to changes in lifestyle/eating behaviours, the sample was divided into three classes of changes: “negative change”, “no change”, “positive change”.
+ For each class, correlations with ΔBMI were investigated.
+ Results.
+ Data were collected from 1304 subjects (973F/331M).
+ Mean ΔBMI differed significantly (p &amp;lt; 0.001) between classes, and was significantly related to water intake, alcohol consumption, physical activity, frequency of “craving or snacking between meals”, dessert/sweets consumption at lunch.
+ Conclusions.
+ During “Phase 1”, many people faced several negative changes in lifestyle/eating behaviours with potential negative impact on health.
+ These findings highlight that pandemic exacerbates nutritional issues and most efforts need to be done to provide nutrition counselling and public health services to support general population needs.
+</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%0, Silvia%Brazzo%NULL%1, Rachele%De Giuseppe%NULL%1, Ginevra%Biino%NULL%2, Ginevra%Biino%NULL%0, Ilaria%Vietti%NULL%1, Cristina%Pallavicini%NULL%1, Hellas%Cena%NULL%1, Emma%Ruiz Moreno%NULL%3, Emma%Ruiz Moreno%NULL%0, Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%0, Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>Diabetes India. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%0, Sandro%Sperandei%NULL%1, Louise%Freebairn%NULL%1, Elizabeth%Conroy%NULL%1, Hir%Jani%NULL%1, Sandra%Marjanovic%NULL%1, Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc. on behalf of Society for Adolescent Health and Medicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic has dramatically impacted lifestyle behaviour as public health initiatives aim to “flatten the curve”.
+ This study examined changes in activity patterns (physical activity, sedentary time, sleep), recreational physical activities, diet, weight and wellbeing from before to during COVID-19 restrictions in Adelaide, Australia.
+ This study used data from a prospective cohort of Australian adults (parents of primary school-aged children; n = 61, 66% female, aged 41±6 years).
+ Participants wore a Fitbit Charge 3 activity monitor and weighed themselves daily using Wi-Fi scales.
+ Activity and weight data were extracted for 14 days before (February 2020) and 14 days during (April 2020) COVID-19 restrictions.
+ Participants reported their recreational physical activity, diet and wellbeing during these periods.
+ Linear mixed effects models were used to examine change over time.
+ Participants slept 27 minutes longer (95% CI 9–51), got up 38 minutes later (95% CI 25–50), and did 50 fewer minutes (95% CI -69–-29) of light physical activity during COVID-19 restrictions.
+ Additionally, participants engaged in more cycling but less swimming, team sports and boating or sailing.
+ Participants consumed a lower percentage of energy from protein (-0.8, 95% CI -1.5–-0.1) and a greater percentage of energy from alcohol (0.9, 95% CI 0.2–1.7).
+ There were no changes in weight or wellbeing.
+ Overall, the effects of COVID-19 restrictions on lifestyle were small; however, their impact on health and wellbeing may accumulate over time.
+ Further research examining the effects of ongoing social distancing restrictions are needed as the pandemic continues.
+</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%0, Timothy%Olds%NULL%2, Timothy%Olds%NULL%0, Ty%Ferguson%NULL%1, François%Fraysse%NULL%2, François%Fraysse%NULL%0, Dorothea%Dumuid%NULL%1, Adrian%Esterman%NULL%1, Gilly A.%Hendrie%NULL%1, Wendy J.%Brown%NULL%1, Rajini%Lagiseti%NULL%1, Carol A.%Maher%NULL%1, Stephanie%Prince Ware%NULL%2, Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic has significantly impacted daily activities worldwide.
+ University students may have experienced substantial changes in daily living as a result of restrictions on university attendance.
+ The return to normalcy may take a long time, and understanding the influence that shifts in daily routines have had on the lifestyles of university students may inform approaches to support overall well-being.
+ We analyzed changes in the lifestyles of students enrolled at a health sciences university during the COVID-19 pandemic.
+ This longitudinal study took place at the Faculty of Medicine and Nursing in the University of the Basque Country in Spain, and the final sample consisted of 113 nursing students, 109 medical students, and 45 physiotherapy students.
+ Our results demonstrate changes in lifestyles of university students during the pandemic.
+ MedDiet adherence scores and the percentage of students with high adherence increased during the pandemic.
+ This increase was due to the increased consumption of vegetables and nuts.
+ In terms of physical activity, the practice of moderate and intense physical activity was maintained.
+ These results provide important information for both public health authorities and educational institutions to guide strategies to maintain the well-being of students and enhance opportunities for young adults to lead a healthy lifestyle.
+</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%0, Ana-Belén%Fraile-Bermúdez%NULL%2, Ana-Belén%Fraile-Bermúdez%NULL%0, Batirtze San%Martín-Gamboa%NULL%2, Batirtze San%Martín-Gamboa%NULL%0, Silvia%Cepeda-Miguel%NULL%1, Borja%Doncel-García%NULL%2, Borja%Doncel-García%NULL%0, Ainhoa%Fernandez-Atutxa%NULL%2, Ainhoa%Fernandez-Atutxa%NULL%0, Amaia%Irazusta%NULL%1, Idoia%Zarrazquin%NULL%2, Idoia%Zarrazquin%NULL%0, Simona%Bo%NULL%4, Simona%Bo%NULL%0, Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%0, Emma%Ward%NULL%2, Emma%Ward%NULL%0, Mizanur%Khondoker%NULL%1, Pippa%Belderson%NULL%1, Anne%Marie Minihane%NULL%1, Jack%Dainty%NULL%1, Sarah%Hanson%NULL%1, Richard%Holland%NULL%1, Tracey%Brown%NULL%1, Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%0, Andrea D.%Smith%NULL%1, Feifei%Bu%NULL%1, Andrew%Steptoe%NULL%1, Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%0, Chihiro%Munekawa%NULL%1, Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1, Takuro%Okamura%NULL%2, Takuro%Okamura%NULL%0, Fuyuko%Takahashi%NULL%1, Rena%Kawano%NULL%1, Hanako%Nakajima%NULL%1, Saori%Majima%NULL%1, Takafumi%Senmaru%NULL%1, Naoko%Nakanishi%NULL%1, Emi%Ushigome%NULL%1, Masahide%Hamaguchi%NULL%1, Masahiro%Yamazaki%NULL%1, Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is plausible that the coronavirus disease pandemic and related changes in work and life patterns affected dietary patterns, but existing studies have limitations owing to a cross-sectional design.
+ Using longitudinal data, we examined dietary changes in people due to the pandemic and work and life patterns.
+ We conducted an online survey on changes in work and life patterns during the pandemic from April 30, 2020, to May 8, 2020, among users of a health app called CALO mama provided in Japan.
+ We retrieved and linked the dietary data for 5929 participants from January 1, 2020, to May 13, 2020. Generalized linear mixed models were used to estimate the frequencies of food intake associated with the pandemic and work and life patterns.
+ During the state of emergency, the frequency of intake of vegetables, beans, seaweeds, fish, meats, dairy products, and snacks increased, whereas alcohol intake decreased.
+ Working from home was associated with increased intake of vegetables, fruits, dairy products, and snacks but decreased intake of seaweeds, meats, and alcohol.
+ Time spent on childcare was associated with decreased intake of vegetables and fruits but increased intake of meats.
+ Probable depressive symptoms were negatively associated with the frequency of food intake other than snacks and alcohol.
+ We conclude that diet quality improved during the pandemic in general, but attention must be paid to overconsumption of snacks and negative factors such as increased burden of childcare and depression for healthy eating.
+</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%0, Satomi%Kobayashi%NULL%1, Mai%Yamaguchi%NULL%1, Ryohei%Sakata%NULL%1, Yuki%Sasaki%NULL%1, Chiaki%Murayama%NULL%1, Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%0, Luca%Pecoraro%NULL%1, Alessandro%Ferruzzi%NULL%1, Moonseong%Heo%NULL%1, Myles%Faith%NULL%1, Thomas%Zoller%NULL%2, Thomas%Zoller%NULL%0, Franco%Antoniazzi%NULL%1, Giorgio%Piacentini%NULL%1, S. Nicole%Fearnbach%NULL%1, Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2, Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our aim is evaluating the changes in weight and dietary habits in a sample of outpatients with obesity after 1 month of enforced lockdown during the COVID-19 pandemic in Northern Italy.
+ In this observational retrospective study, the patients of our Obesity Unit were invited to answer to a 12-question multiple-choice questionnaire relative to weight changes, working activity, exercise, dietary habits, and conditions potentially impacting on nutritional choices.
+ A multivariate regression analysis was performed to evaluate the associations among weight/BMI changes and the analyzed variables.
+ A total of 150 subjects (91.5%) completed the questionnaire.
+ Mean self-reported weight gain was ≈1.5 kg (p &amp;lt; 0.001).
+ Lower exercise, self-reported boredom/solitude, anxiety/depression, enhanced eating, consumption of snacks, unhealthy foods, cereals, and sweets were correlated with a significantly higher weight gain.
+ Multiple regression analyses showed that increased education (inversely, β = −1.15; 95%CI −2.13, −0.17, p = 0.022), self-reported anxiety/depression (β = 1.61; 0.53, 2.69, p = 0.004), and not consuming healthy foods (β = 1.48; 0.19, 2.77, p = 0.026) were significantly associated with increased weight gain.
+ The estimated direct effect of self-reported anxiety/depression on weight was 2.07 kg (1.07, 3.07, p &amp;lt; 0.001).
+ Individuals with obesity significantly gained weight 1 month after the beginning of the quarantine.
+ The adverse mental burden linked to the COVID-19 pandemic was greatly associated with increased weight gain.
+</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%0, Valentina%Ponzo%NULL%1, Rosalba%Rosato%NULL%1, Elena%Scumaci%NULL%1, Ilaria%Goitre%NULL%1, Andrea%Benso%NULL%1, Sara%Belcastro%NULL%1, Chiara%Crespi%NULL%1, Franco%De Michieli%NULL%1, Ezio%Ghigo%NULL%1, Fabio%Broglio%NULL%1, Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1907,10 +2100,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1922,10 +2115,10 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
@@ -1942,7 +2135,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1954,10 +2147,10 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
@@ -1974,7 +2167,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1986,10 +2179,10 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
@@ -2003,10 +2196,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -2018,10 +2211,10 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
@@ -2035,10 +2228,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>468</v>
       </c>
       <c r="E6" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -2050,10 +2243,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
@@ -2064,25 +2257,25 @@
         <v>44287.0</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
         <v>122</v>
@@ -2102,7 +2295,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2114,10 +2307,10 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9">
@@ -2134,7 +2327,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2146,10 +2339,10 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10">
@@ -2163,10 +2356,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2178,10 +2371,10 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
@@ -2195,10 +2388,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>476</v>
       </c>
       <c r="E11" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2210,10 +2403,10 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12">
@@ -2230,7 +2423,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2242,10 +2435,10 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13">
@@ -2256,25 +2449,25 @@
         <v>44085.0</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
         <v>122</v>
@@ -2291,10 +2484,10 @@
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="E14" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -2306,10 +2499,10 @@
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
